--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>275641.9314847935</v>
+        <v>279334.621306473</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763805</v>
+        <v>11821355.91763806</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10162932.89091065</v>
+        <v>10162932.89091066</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.7816472348624</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -710,10 +712,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -722,10 +724,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>298.0721989747358</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>105.9202115588044</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>108.2325958858357</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>2.631299643330243</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -865,7 +867,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>157.8237968337156</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.53404191566492</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>113.3390858888653</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.80062112006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>286.2137375321901</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>80.44800110537372</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398083</v>
+        <v>157.8079400398079</v>
       </c>
     </row>
     <row r="10">
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>136.1769805884545</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1348,16 +1350,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.06736062834933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>392.564747250141</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>294.7228925766561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1536,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>176.4716466279257</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>393.9470907639073</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1619,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>307.0765021940434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059085</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>393.9470907639073</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1859,7 +1861,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>120.2041205925705</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1935,7 +1937,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>105.9202115588047</v>
+        <v>105.9202115588048</v>
       </c>
       <c r="H18" t="n">
         <v>70.03974083464111</v>
@@ -2008,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>20.36587827992699</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -2068,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>388.2474135039329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>386.8650699901663</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>137.0591948939932</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -2257,7 +2259,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>388.3430365919143</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>100.1748119649376</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>105.6240463898355</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>154.9138530358401</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2536,7 +2538,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>41.7773667277431</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>360.6427419327372</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>144.2400162853134</v>
       </c>
       <c r="D28" t="n">
-        <v>127.7712187773943</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2761,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>17.51637719420325</v>
       </c>
       <c r="C29" t="n">
-        <v>133.7575266808479</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2846,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
@@ -3010,13 +3012,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>122.9526708794213</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>29.06736062834934</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>333.6809079592912</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>216.4159614515814</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3089,10 +3091,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,7 +3113,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>115.7281862028012</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
@@ -3193,7 +3195,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>8.110442547093625</v>
+        <v>1.263738932013419</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>22.24184669399752</v>
       </c>
       <c r="G35" t="n">
-        <v>278.5292844007594</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3424,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>124.4725436715621</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>29.06736062834986</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -3481,13 +3483,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3509,13 +3511,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>404.7438539098942</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>87.20082366335042</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>48.27590548027844</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -3670,10 +3672,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>88.61451326863863</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>38.28538244126393</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>193.0410393446618</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3873,7 +3875,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3773027531638</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>13.14147362117913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>29.06736062834986</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -3958,10 +3960,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>251.7082699217148</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.519605524811457</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8962612405994658</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4201,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>417.795279862895</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="C2" t="n">
-        <v>417.795279862895</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="D2" t="n">
-        <v>417.795279862895</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E2" t="n">
-        <v>417.795279862895</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F2" t="n">
-        <v>417.795279862895</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G2" t="n">
-        <v>417.795279862895</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>537.7254774811266</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811266</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M2" t="n">
-        <v>1054.568412147452</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N2" t="n">
         <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
         <v>2088.254281480102</v>
@@ -4358,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1603.135651610684</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W2" t="n">
-        <v>1219.375350745852</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X2" t="n">
-        <v>818.7319529148049</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="Y2" t="n">
-        <v>417.795279862895</v>
+        <v>439.0253456848109</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922353</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M3" t="n">
-        <v>508.1659581184966</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N3" t="n">
-        <v>1025.008892784822</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
         <v>2058.694762117472</v>
@@ -4440,19 +4442,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>748.9259581138216</v>
+        <v>648.7202286601656</v>
       </c>
       <c r="C4" t="n">
-        <v>748.9259581138216</v>
+        <v>477.6268562218821</v>
       </c>
       <c r="D4" t="n">
-        <v>748.9259581138216</v>
+        <v>477.6268562218821</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>477.6268562218821</v>
       </c>
       <c r="F4" t="n">
         <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H4" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4513,25 +4515,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U4" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="V4" t="n">
-        <v>1212.005518865373</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="W4" t="n">
-        <v>1212.005518865373</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="X4" t="n">
-        <v>973.6616567250569</v>
+        <v>1061.155633665445</v>
       </c>
       <c r="Y4" t="n">
-        <v>748.9259581138216</v>
+        <v>836.41993505421</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.342150385648</v>
+        <v>1020.035937023212</v>
       </c>
       <c r="C5" t="n">
-        <v>1252.217559698918</v>
+        <v>609.9113463364826</v>
       </c>
       <c r="D5" t="n">
-        <v>847.7536297919787</v>
+        <v>609.9113463364826</v>
       </c>
       <c r="E5" t="n">
-        <v>847.7536297919787</v>
+        <v>609.9113463364826</v>
       </c>
       <c r="F5" t="n">
-        <v>847.7536297919787</v>
+        <v>609.9113463364826</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>201.1830622293147</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L5" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M5" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4598,19 +4600,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="Y5" t="n">
-        <v>2072.563330050138</v>
+        <v>1430.257116687702</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
         <v>234.5779431922353</v>
@@ -4650,19 +4652,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>589.4529029345438</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>589.4529029345438</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>589.4529029345438</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>589.4529029345438</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4753,22 +4755,22 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1299.499495805762</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1016.701348351886</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>742.815603291408</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W7" t="n">
-        <v>463.7459388002824</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X7" t="n">
-        <v>225.4020766599658</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.033101815613</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.033101815613</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D8" t="n">
-        <v>1596.772494638468</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E8" t="n">
-        <v>1182.432279155364</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F8" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G8" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636817</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M8" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N8" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4832,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1516.210242763441</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>731.8065440675625</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>330.8698710156526</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
         <v>234.5779431922353</v>
@@ -4893,7 +4895,7 @@
         <v>1724.070068790184</v>
       </c>
       <c r="N9" t="n">
-        <v>2058.694762117472</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O9" t="n">
         <v>2058.694762117472</v>
@@ -4914,19 +4916,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1145.223475107064</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>862.4253276531883</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>588.5395825927103</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W10" t="n">
-        <v>309.4699181015847</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X10" t="n">
-        <v>71.12605596126804</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.76508562960205</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C11" t="n">
-        <v>41.76508562960205</v>
+        <v>1678.129690793372</v>
       </c>
       <c r="D11" t="n">
-        <v>41.76508562960205</v>
+        <v>1273.665760886433</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960205</v>
+        <v>859.3255454033297</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>438.2951333570172</v>
       </c>
       <c r="G11" t="n">
         <v>41.76508562960205</v>
@@ -5039,25 +5041,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K11" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L11" t="n">
-        <v>295.9505570973564</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="M11" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N11" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O11" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P11" t="n">
-        <v>1846.479361096332</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q11" t="n">
         <v>2047.697635790537</v>
@@ -5066,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T11" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U11" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V11" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W11" t="n">
-        <v>740.1083749522213</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>339.4649771211738</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.76508562960205</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="12">
@@ -5124,22 +5126,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>704.7239474634683</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M12" t="n">
-        <v>1221.566882129794</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N12" t="n">
-        <v>1738.409816796119</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O12" t="n">
-        <v>1738.409816796119</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P12" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>686.5916838289277</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C13" t="n">
-        <v>515.4983113906442</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D13" t="n">
-        <v>356.0036667135541</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E13" t="n">
-        <v>356.0036667135541</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F13" t="n">
-        <v>191.3725408241454</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5227,22 +5229,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U13" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V13" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W13" t="n">
-        <v>1052.545578736028</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X13" t="n">
-        <v>874.291390222972</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.291390222972</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1778.075996435614</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C14" t="n">
-        <v>1367.951405748884</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D14" t="n">
-        <v>963.4874758419446</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E14" t="n">
-        <v>549.1472603588413</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F14" t="n">
-        <v>128.1168483125289</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H14" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I14" t="n">
         <v>41.76508562960205</v>
@@ -5282,19 +5284,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L14" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M14" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N14" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O14" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P14" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q14" t="n">
         <v>2088.254281480102</v>
@@ -5321,7 +5323,7 @@
         <v>2088.254281480102</v>
       </c>
       <c r="Y14" t="n">
-        <v>1778.075996435614</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="15">
@@ -5334,7 +5336,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D15" t="n">
         <v>469.7036984844747</v>
@@ -5346,37 +5348,37 @@
         <v>240.2510026593072</v>
       </c>
       <c r="G15" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936203</v>
+        <v>62.5136770093618</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>537.7254774811266</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>1054.568412147452</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M15" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N15" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O15" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5394,7 +5396,7 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
@@ -5458,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960205</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2088.254281480102</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="C17" t="n">
-        <v>1690.327927173125</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.863997266186</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H17" t="n">
         <v>41.76508562960205</v>
@@ -5516,25 +5518,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K17" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L17" t="n">
         <v>558.6080202959273</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N17" t="n">
-        <v>1075.450954962253</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O17" t="n">
-        <v>1571.411346813777</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
@@ -5549,16 +5551,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1966.835977851243</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1583.075676986412</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>1182.432279155364</v>
       </c>
     </row>
     <row r="18">
@@ -5571,7 +5573,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D18" t="n">
         <v>469.7036984844747</v>
@@ -5580,31 +5582,31 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I18" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>497.5713418949007</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.414276561226</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N18" t="n">
-        <v>1192.007362767164</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O18" t="n">
         <v>1708.850297433489</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>555.1290119472964</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>555.1290119472964</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>555.1290119472964</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>394.2181968156158</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>229.5870709262071</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>62.33667985175052</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
         <v>41.76508562960205</v>
@@ -5701,22 +5703,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>1297.278237189974</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>1018.208572698848</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>779.8647105585317</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>555.1290119472964</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1287.260303845748</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C20" t="n">
-        <v>877.1357131590178</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D20" t="n">
-        <v>877.1357131590178</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E20" t="n">
-        <v>462.7954976759145</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F20" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G20" t="n">
         <v>41.76508562960205</v>
@@ -5750,28 +5752,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L20" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M20" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N20" t="n">
-        <v>1571.411346813777</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O20" t="n">
-        <v>2088.254281480102</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
@@ -5792,10 +5794,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.481483510237</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y20" t="n">
-        <v>1697.481483510237</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K21" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L21" t="n">
-        <v>751.4208778585605</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.263812524886</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N21" t="n">
-        <v>1268.263812524886</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O21" t="n">
-        <v>1785.106747191211</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>497.0665631046558</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C22" t="n">
-        <v>497.0665631046558</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D22" t="n">
-        <v>497.0665631046558</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E22" t="n">
-        <v>497.0665631046558</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F22" t="n">
-        <v>358.622931898602</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G22" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H22" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I22" t="n">
         <v>41.76508562960205</v>
@@ -5941,19 +5943,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U22" t="n">
-        <v>1288.365834796576</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V22" t="n">
-        <v>1014.480089736098</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W22" t="n">
-        <v>735.4104252449724</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X22" t="n">
-        <v>497.0665631046558</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y22" t="n">
-        <v>497.0665631046558</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>553.0763550687942</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C23" t="n">
-        <v>142.9517643820643</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D23" t="n">
-        <v>41.76508562960205</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E23" t="n">
-        <v>41.76508562960205</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F23" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L23" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M23" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N23" t="n">
-        <v>692.8507596625949</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O23" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P23" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
@@ -6023,16 +6025,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>1354.656425951752</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X23" t="n">
-        <v>954.0130281207041</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y23" t="n">
-        <v>553.0763550687942</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="K24" t="n">
         <v>497.5713418949007</v>
       </c>
       <c r="L24" t="n">
-        <v>497.5713418949007</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="M24" t="n">
-        <v>1014.414276561226</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="N24" t="n">
-        <v>1054.568412147451</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="O24" t="n">
-        <v>1571.411346813777</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>309.3668567106114</v>
+        <v>536.5874885724836</v>
       </c>
       <c r="C25" t="n">
-        <v>309.3668567106114</v>
+        <v>365.4941161342001</v>
       </c>
       <c r="D25" t="n">
-        <v>202.6759007612826</v>
+        <v>365.4941161342001</v>
       </c>
       <c r="E25" t="n">
-        <v>41.76508562960205</v>
+        <v>365.4941161342001</v>
       </c>
       <c r="F25" t="n">
-        <v>41.76508562960205</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G25" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H25" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6175,22 +6177,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>1288.365834796576</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V25" t="n">
-        <v>1014.480089736098</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W25" t="n">
-        <v>735.4104252449724</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="X25" t="n">
-        <v>497.0665631046558</v>
+        <v>536.5874885724836</v>
       </c>
       <c r="Y25" t="n">
-        <v>497.0665631046558</v>
+        <v>536.5874885724836</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1188.0442105313</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="C26" t="n">
-        <v>1188.0442105313</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="D26" t="n">
-        <v>1188.0442105313</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E26" t="n">
-        <v>773.7039950481965</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F26" t="n">
-        <v>352.673583001884</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G26" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
         <v>295.9505570973564</v>
@@ -6230,19 +6232,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="L26" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M26" t="n">
-        <v>812.7934917636817</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N26" t="n">
         <v>1329.636426430007</v>
       </c>
       <c r="O26" t="n">
-        <v>1846.479361096332</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P26" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q26" t="n">
         <v>2047.697635790537</v>
@@ -6251,25 +6253,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>1952.973206274203</v>
+        <v>2046.054921149048</v>
       </c>
       <c r="U26" t="n">
-        <v>1952.973206274203</v>
+        <v>2046.054921149048</v>
       </c>
       <c r="V26" t="n">
-        <v>1952.973206274203</v>
+        <v>2046.054921149048</v>
       </c>
       <c r="W26" t="n">
-        <v>1588.687608362347</v>
+        <v>1662.294620284217</v>
       </c>
       <c r="X26" t="n">
-        <v>1188.0442105313</v>
+        <v>1261.651222453169</v>
       </c>
       <c r="Y26" t="n">
-        <v>1188.0442105313</v>
+        <v>860.7145494012593</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G27" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J27" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L27" t="n">
-        <v>1207.227134123859</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M27" t="n">
-        <v>1207.227134123859</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N27" t="n">
-        <v>1541.851827451147</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O27" t="n">
-        <v>1541.851827451147</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P27" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q27" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6339,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1100.666128402532</v>
+        <v>1105.702549639236</v>
       </c>
       <c r="C28" t="n">
-        <v>929.5727559642482</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D28" t="n">
         <v>800.5109188153651</v>
@@ -6373,19 +6375,19 @@
         <v>474.9689777942758</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H28" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6409,25 +6411,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U28" t="n">
-        <v>1288.365834796576</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V28" t="n">
-        <v>1288.365834796576</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="W28" t="n">
-        <v>1288.365834796576</v>
+        <v>1105.702549639236</v>
       </c>
       <c r="X28" t="n">
-        <v>1288.365834796576</v>
+        <v>1105.702549639236</v>
       </c>
       <c r="Y28" t="n">
-        <v>1288.365834796576</v>
+        <v>1105.702549639236</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1420.972610075123</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="C29" t="n">
         <v>1285.863997266186</v>
@@ -6452,34 +6454,34 @@
         <v>450.4933697367699</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L29" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M29" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N29" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O29" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P29" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q29" t="n">
         <v>2047.697635790537</v>
@@ -6494,19 +6496,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U29" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V29" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W29" t="n">
-        <v>1831.193789739612</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="X29" t="n">
-        <v>1831.193789739612</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="Y29" t="n">
-        <v>1831.193789739612</v>
+        <v>1303.557307563361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G30" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M30" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N30" t="n">
-        <v>1054.568412147452</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O30" t="n">
-        <v>1571.411346813777</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P30" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q30" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6576,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>708.4628400537953</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C31" t="n">
-        <v>708.4628400537953</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D31" t="n">
-        <v>708.4628400537953</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E31" t="n">
-        <v>708.4628400537953</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F31" t="n">
-        <v>708.4628400537953</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G31" t="n">
-        <v>708.4628400537953</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H31" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I31" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J31" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K31" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L31" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M31" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N31" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O31" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P31" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1816.589795035412</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T31" t="n">
-        <v>1577.041056012114</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U31" t="n">
-        <v>1294.242908558238</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V31" t="n">
-        <v>1020.35716349776</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W31" t="n">
-        <v>896.1625464478396</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X31" t="n">
-        <v>896.1625464478396</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y31" t="n">
-        <v>896.1625464478396</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>465.1682704936311</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C32" t="n">
-        <v>465.1682704936311</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D32" t="n">
-        <v>465.1682704936311</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E32" t="n">
-        <v>465.1682704936311</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F32" t="n">
-        <v>465.1682704936311</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G32" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H32" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K32" t="n">
-        <v>176.0078249962696</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L32" t="n">
-        <v>176.0078249962696</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M32" t="n">
-        <v>176.0078249962696</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N32" t="n">
-        <v>692.8507596625949</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O32" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P32" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q32" t="n">
         <v>2047.697635790537</v>
@@ -6728,22 +6730,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T32" t="n">
-        <v>1866.047797426961</v>
+        <v>1869.652300215878</v>
       </c>
       <c r="U32" t="n">
-        <v>1608.987305686471</v>
+        <v>1612.591808475388</v>
       </c>
       <c r="V32" t="n">
-        <v>1259.149751022952</v>
+        <v>1262.754253811869</v>
       </c>
       <c r="W32" t="n">
-        <v>875.3894501581206</v>
+        <v>1262.754253811869</v>
       </c>
       <c r="X32" t="n">
-        <v>875.3894501581206</v>
+        <v>862.1108559808214</v>
       </c>
       <c r="Y32" t="n">
-        <v>875.3894501581206</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G33" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K33" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L33" t="n">
-        <v>1207.227134123859</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M33" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N33" t="n">
-        <v>1571.411346813777</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O33" t="n">
-        <v>2088.254281480102</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P33" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q33" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6810,19 +6812,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U33" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1163.589269274028</v>
+        <v>373.6296067167062</v>
       </c>
       <c r="C34" t="n">
-        <v>992.4958968357446</v>
+        <v>202.5362342784227</v>
       </c>
       <c r="D34" t="n">
-        <v>833.0012521586546</v>
+        <v>43.04158960133276</v>
       </c>
       <c r="E34" t="n">
-        <v>824.8088859494691</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F34" t="n">
-        <v>824.8088859494691</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G34" t="n">
-        <v>824.8088859494691</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H34" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J34" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M34" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P34" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>2088.254281480102</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S34" t="n">
-        <v>2088.254281480102</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T34" t="n">
-        <v>2088.254281480102</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U34" t="n">
-        <v>2088.254281480102</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V34" t="n">
-        <v>1814.368536419624</v>
+        <v>786.0650117219859</v>
       </c>
       <c r="W34" t="n">
-        <v>1814.368536419624</v>
+        <v>786.0650117219859</v>
       </c>
       <c r="X34" t="n">
-        <v>1576.024674279308</v>
+        <v>786.0650117219859</v>
       </c>
       <c r="Y34" t="n">
-        <v>1351.288975668072</v>
+        <v>561.3293131107506</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1552.036533222293</v>
+        <v>64.23159744172074</v>
       </c>
       <c r="C35" t="n">
-        <v>1141.911942535563</v>
+        <v>64.23159744172074</v>
       </c>
       <c r="D35" t="n">
-        <v>737.4480126286239</v>
+        <v>64.23159744172074</v>
       </c>
       <c r="E35" t="n">
-        <v>323.1077971455206</v>
+        <v>64.23159744172074</v>
       </c>
       <c r="F35" t="n">
-        <v>323.1077971455206</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K35" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L35" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M35" t="n">
-        <v>1592.293889628578</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N35" t="n">
         <v>1592.293889628578</v>
       </c>
       <c r="O35" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q35" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T35" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U35" t="n">
-        <v>1952.973206274203</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V35" t="n">
-        <v>1952.973206274203</v>
+        <v>1259.149751022951</v>
       </c>
       <c r="W35" t="n">
-        <v>1952.973206274203</v>
+        <v>875.3894501581201</v>
       </c>
       <c r="X35" t="n">
-        <v>1952.973206274203</v>
+        <v>875.3894501581201</v>
       </c>
       <c r="Y35" t="n">
-        <v>1552.036533222293</v>
+        <v>474.4527771062102</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G36" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>1014.414276561226</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M36" t="n">
-        <v>1531.257211227551</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N36" t="n">
-        <v>2048.100145893876</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O36" t="n">
         <v>2088.254281480102</v>
@@ -7050,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.0829448374625</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="C37" t="n">
-        <v>326.989572399179</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="D37" t="n">
-        <v>167.494927722089</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="E37" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F37" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G37" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H37" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L37" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M37" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N37" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O37" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P37" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q37" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R37" t="n">
-        <v>1485.891263925851</v>
+        <v>2058.893311148435</v>
       </c>
       <c r="S37" t="n">
-        <v>1299.499495805762</v>
+        <v>1872.501543028345</v>
       </c>
       <c r="T37" t="n">
-        <v>1059.950756782464</v>
+        <v>1632.952804005047</v>
       </c>
       <c r="U37" t="n">
-        <v>777.1526093285881</v>
+        <v>1350.154656551172</v>
       </c>
       <c r="V37" t="n">
-        <v>777.1526093285881</v>
+        <v>1076.268911490694</v>
       </c>
       <c r="W37" t="n">
-        <v>498.0829448374625</v>
+        <v>797.199246999568</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0829448374625</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="Y37" t="n">
-        <v>498.0829448374625</v>
+        <v>558.8553848592514</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2088.254281480102</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.129690793372</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D38" t="n">
-        <v>1273.665760886433</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E38" t="n">
-        <v>859.3255454033297</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F38" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L38" t="n">
-        <v>537.7254774811266</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M38" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N38" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O38" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P38" t="n">
         <v>2088.254281480102</v>
@@ -7202,22 +7204,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>2000.172641416111</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>2000.172641416111</v>
       </c>
       <c r="V38" t="n">
-        <v>2088.254281480102</v>
+        <v>1650.335086752592</v>
       </c>
       <c r="W38" t="n">
-        <v>2088.254281480102</v>
+        <v>1266.574785887761</v>
       </c>
       <c r="X38" t="n">
-        <v>2088.254281480102</v>
+        <v>1266.574785887761</v>
       </c>
       <c r="Y38" t="n">
-        <v>2088.254281480102</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7247,25 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L39" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M39" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N39" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O39" t="n">
         <v>1592.293889628578</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>742.815603291408</v>
+        <v>622.7735272389173</v>
       </c>
       <c r="C40" t="n">
-        <v>694.0520624022379</v>
+        <v>451.6801548006338</v>
       </c>
       <c r="D40" t="n">
-        <v>534.5574177251478</v>
+        <v>292.1855101235438</v>
       </c>
       <c r="E40" t="n">
-        <v>373.6466025934674</v>
+        <v>131.2746949918633</v>
       </c>
       <c r="F40" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7354,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1299.499495805762</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>1016.701348351886</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>742.815603291408</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="W40" t="n">
-        <v>742.815603291408</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="X40" t="n">
-        <v>742.815603291408</v>
+        <v>810.4732336329616</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.815603291408</v>
+        <v>810.4732336329616</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1552.036533222293</v>
+        <v>893.6294031197335</v>
       </c>
       <c r="C41" t="n">
-        <v>1141.911942535563</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="D41" t="n">
-        <v>737.4480126286239</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E41" t="n">
-        <v>323.1077971455206</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F41" t="n">
-        <v>128.1168483125289</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K41" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L41" t="n">
-        <v>1014.011766457887</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M41" t="n">
-        <v>1530.854701124212</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N41" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O41" t="n">
-        <v>1530.854701124212</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P41" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S41" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U41" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W41" t="n">
-        <v>1952.973206274203</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="X41" t="n">
-        <v>1952.973206274203</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y41" t="n">
-        <v>1552.036533222293</v>
+        <v>1303.850582784223</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L42" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>558.6080202959273</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.450954962253</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="O42" t="n">
-        <v>1221.566882129794</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P42" t="n">
-        <v>1738.409816796119</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>503.2668642681101</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="C43" t="n">
-        <v>503.2668642681101</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="D43" t="n">
-        <v>503.2668642681101</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="E43" t="n">
-        <v>503.2668642681101</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F43" t="n">
-        <v>338.6357383787013</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G43" t="n">
-        <v>171.3853473042447</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H43" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L43" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M43" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N43" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O43" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P43" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q43" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R43" t="n">
-        <v>1485.891263925851</v>
+        <v>2058.893311148435</v>
       </c>
       <c r="S43" t="n">
-        <v>1299.499495805762</v>
+        <v>1872.501543028345</v>
       </c>
       <c r="T43" t="n">
-        <v>1059.950756782464</v>
+        <v>1632.952804005047</v>
       </c>
       <c r="U43" t="n">
-        <v>777.1526093285881</v>
+        <v>1350.154656551172</v>
       </c>
       <c r="V43" t="n">
-        <v>503.2668642681101</v>
+        <v>1076.268911490694</v>
       </c>
       <c r="W43" t="n">
-        <v>503.2668642681101</v>
+        <v>797.199246999568</v>
       </c>
       <c r="X43" t="n">
-        <v>503.2668642681101</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="Y43" t="n">
-        <v>503.2668642681101</v>
+        <v>558.8553848592514</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1277.389703984565</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C44" t="n">
-        <v>1277.389703984565</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D44" t="n">
-        <v>1277.389703984565</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E44" t="n">
-        <v>1268.784041838291</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F44" t="n">
-        <v>847.7536297919787</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G44" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H44" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K44" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L44" t="n">
-        <v>295.9505570973564</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M44" t="n">
-        <v>295.9505570973564</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N44" t="n">
-        <v>692.8507596625949</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O44" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P44" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
@@ -7679,19 +7681,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U44" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V44" t="n">
-        <v>2088.254281480102</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W44" t="n">
-        <v>2088.254281480102</v>
+        <v>1097.595934211261</v>
       </c>
       <c r="X44" t="n">
-        <v>1687.610883649055</v>
+        <v>696.9525363802138</v>
       </c>
       <c r="Y44" t="n">
-        <v>1687.610883649055</v>
+        <v>296.0158633283039</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L45" t="n">
-        <v>41.76508562960205</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M45" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N45" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O45" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P45" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
         <v>2088.254281480102</v>
@@ -7761,16 +7763,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>866.0507492249653</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C46" t="n">
-        <v>694.9573767866818</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D46" t="n">
-        <v>535.4627321095918</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E46" t="n">
-        <v>374.5519169779113</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F46" t="n">
-        <v>209.9207910885025</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G46" t="n">
-        <v>42.67040001404595</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L46" t="n">
         <v>470.2970630371111</v>
@@ -7834,22 +7836,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>1292.094317759326</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>1053.75045561901</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>1053.75045561901</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>590.1064824525349</v>
+        <v>333.3534809699544</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8058,22 +8060,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M3" t="n">
-        <v>333.9158139669643</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>391.1981341283837</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8216,25 +8218,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>292.3871721926164</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832875</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8298,22 +8300,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>394.1192645454833</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8453,16 +8455,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774881</v>
       </c>
       <c r="N8" t="n">
-        <v>534.7878950544006</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O8" t="n">
         <v>93.18977562578313</v>
@@ -8474,7 +8476,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,16 +8537,16 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1981341283841</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>395.7562197346337</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>231.0841246958424</v>
       </c>
       <c r="M11" t="n">
         <v>615.3537948270711</v>
@@ -8708,7 +8710,7 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q11" t="n">
-        <v>293.2845869185513</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8772,25 +8774,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>70.59911775623726</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8932,7 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
         <v>615.3537948270711</v>
@@ -8939,13 +8941,13 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P14" t="n">
-        <v>270.21439869122</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9006,28 +9008,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>362.0354133794551</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>564.2543476875383</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,28 +9166,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K17" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>553.2940084590249</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>564.2543476875381</v>
       </c>
       <c r="N18" t="n">
-        <v>232.5803491573234</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
-        <v>596.4554908421626</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O20" t="n">
-        <v>615.2533459958087</v>
+        <v>296.4405581451824</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O21" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P21" t="n">
-        <v>360.4692655976428</v>
+        <v>525.371627415828</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,25 +9643,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270711</v>
+        <v>594.2603172363629</v>
       </c>
       <c r="N23" t="n">
-        <v>228.5110173896169</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O23" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P23" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>66.81615635993546</v>
       </c>
       <c r="M24" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>93.75312630912927</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P24" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,22 +9880,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>296.9001458002834</v>
+        <v>494.5586588013268</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9954,28 +9956,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808746</v>
+        <v>362.3241544056884</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N27" t="n">
-        <v>391.1981341283841</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L29" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>493.821586277062</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
-        <v>553.6531472828635</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10188,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>554.1634861730678</v>
+        <v>391.1981341283837</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,25 +10351,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>224.7351163062146</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10425,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M33" t="n">
-        <v>425.4271248393445</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>524.3053858067744</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,19 +10588,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N35" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O35" t="n">
-        <v>553.1935596277625</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
@@ -10607,7 +10609,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,22 +10664,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>578.1780941808746</v>
+        <v>423.9773649117757</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>98.31121191537974</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10823,22 +10825,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L38" t="n">
-        <v>596.4554908421626</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>594.6194560602016</v>
       </c>
       <c r="Q38" t="n">
         <v>90.03380439915205</v>
@@ -10905,19 +10907,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M39" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P39" t="n">
-        <v>555.229727782121</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>298.736180582244</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>269.7548110361188</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>67.67798733913774</v>
       </c>
       <c r="O42" t="n">
-        <v>205.3433246237788</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>594.2603172363629</v>
       </c>
       <c r="N44" t="n">
-        <v>493.8215862770623</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P44" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11378,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>98.1240166537967</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P45" t="n">
-        <v>201.8514806265826</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22562,7 +22564,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>21.01776516369677</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,10 +22600,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>98.56476487800114</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>51.06911109452805</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>160.3535149871844</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22753,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -22762,7 +22764,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -22787,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -22799,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>149.9756155648436</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,7 +22840,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -22850,7 +22852,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>381.3932644057259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -22951,16 +22953,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>49.64572874164938</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22993,22 +22995,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>40.68772050506288</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>119.9052303356545</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>319.9712895024963</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23072,22 +23074,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23185,19 +23187,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>23.12472639190918</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23236,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.4209809967736</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23258,19 +23260,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>12.0762540159551</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.2044137447347</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -23476,13 +23478,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>59.48877689098771</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23497,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>12.07625401595521</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.85080412734737</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300493</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,13 +23734,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>12.07625401595521</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23789,13 +23791,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>226.1350585243136</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23896,16 +23898,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>127.7455023626709</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23941,10 +23943,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>17.77593127592968</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24032,7 +24034,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>9.771893862570664</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>25.92561973652141</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>17.7759312759303</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>300.2444786429324</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24263,16 +24265,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>52.27565184048356</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>8.070961594674571</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24415,7 +24417,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -24449,16 +24451,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>178.2070524848667</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -24503,13 +24505,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>19.27995592344587</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>25.14242242858725</v>
       </c>
       <c r="D28" t="n">
-        <v>30.12847945292479</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24649,19 +24651,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>388.6025906736413</v>
       </c>
       <c r="C29" t="n">
-        <v>272.2658180990146</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -24734,19 +24736,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24853,7 +24855,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>153.326296966793</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -24929,13 +24931,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>70.96009330680494</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,7 +24970,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>3.568457761028327</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24977,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>151.1912644332701</v>
+        <v>158.0379680483503</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25090,10 +25092,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -25138,7 +25140,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>394.5782612318518</v>
       </c>
       <c r="G35" t="n">
-        <v>126.1117168653367</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -25312,13 +25314,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>34.82916330880164</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>55.35263051300448</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25397,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>12.0762540159551</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -25442,16 +25444,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>132.7835955492594</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>121.1065332336222</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>74.37030136187602</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>367.7379623385986</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>223.7790685811875</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -25688,13 +25690,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25795,16 +25797,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>134.9699070214188</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>55.35263051300448</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>154.4106979461297</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -25871,19 +25873,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>401.6772078034608</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,19 +25921,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2151194019984</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -26074,13 +26076,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884632</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>561264.0918490102</v>
+        <v>561264.09184901</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>561264.0918490101</v>
+        <v>561264.09184901</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>561264.09184901</v>
+        <v>561264.0918490101</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>561264.0918490102</v>
+        <v>561264.09184901</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>561264.0918490101</v>
+        <v>561264.09184901</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26316,10 @@
         <v>104642.4578023579</v>
       </c>
       <c r="C2" t="n">
-        <v>104642.4578023579</v>
+        <v>104642.4578023578</v>
       </c>
       <c r="D2" t="n">
-        <v>104642.4578023579</v>
+        <v>104642.4578023578</v>
       </c>
       <c r="E2" t="n">
         <v>104642.4578023579</v>
@@ -26326,7 +26328,7 @@
         <v>104642.4578023579</v>
       </c>
       <c r="G2" t="n">
-        <v>104642.4578023578</v>
+        <v>104642.4578023579</v>
       </c>
       <c r="H2" t="n">
         <v>104642.4578023579</v>
@@ -26335,25 +26337,25 @@
         <v>104642.4578023578</v>
       </c>
       <c r="J2" t="n">
-        <v>104642.4578023579</v>
+        <v>104642.4578023578</v>
       </c>
       <c r="K2" t="n">
         <v>104642.4578023579</v>
       </c>
       <c r="L2" t="n">
-        <v>104642.4578023579</v>
+        <v>104642.4578023578</v>
       </c>
       <c r="M2" t="n">
-        <v>104642.4578023579</v>
+        <v>104642.4578023578</v>
       </c>
       <c r="N2" t="n">
         <v>104642.4578023579</v>
       </c>
       <c r="O2" t="n">
-        <v>104642.4578023579</v>
+        <v>104642.4578023578</v>
       </c>
       <c r="P2" t="n">
-        <v>104642.4578023579</v>
+        <v>104642.4578023578</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>433.9049324434264</v>
+        <v>433.9049324434262</v>
       </c>
       <c r="C4" t="n">
-        <v>433.9049324434264</v>
+        <v>433.9049324434262</v>
       </c>
       <c r="D4" t="n">
-        <v>433.9049324434264</v>
+        <v>433.9049324434262</v>
       </c>
       <c r="E4" t="n">
         <v>433.9049324434263</v>
@@ -26430,34 +26432,34 @@
         <v>433.9049324434263</v>
       </c>
       <c r="G4" t="n">
+        <v>433.9049324434263</v>
+      </c>
+      <c r="H4" t="n">
         <v>433.9049324434264</v>
-      </c>
-      <c r="H4" t="n">
-        <v>433.9049324434263</v>
       </c>
       <c r="I4" t="n">
         <v>433.9049324434263</v>
       </c>
       <c r="J4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434262</v>
       </c>
       <c r="K4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434262</v>
       </c>
       <c r="L4" t="n">
         <v>433.9049324434263</v>
       </c>
       <c r="M4" t="n">
-        <v>433.9049324434264</v>
+        <v>433.9049324434262</v>
       </c>
       <c r="N4" t="n">
-        <v>433.9049324434264</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="O4" t="n">
+        <v>433.9049324434262</v>
+      </c>
+      <c r="P4" t="n">
         <v>433.9049324434263</v>
-      </c>
-      <c r="P4" t="n">
-        <v>433.9049324434264</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26522,19 +26524,19 @@
         <v>-136116.0221016972</v>
       </c>
       <c r="C6" t="n">
-        <v>38839.4877914169</v>
+        <v>38839.48779141686</v>
       </c>
       <c r="D6" t="n">
-        <v>38839.48779141688</v>
+        <v>38839.48779141683</v>
       </c>
       <c r="E6" t="n">
+        <v>72467.08779141691</v>
+      </c>
+      <c r="F6" t="n">
         <v>72467.08779141687</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>72467.08779141688</v>
-      </c>
-      <c r="G6" t="n">
-        <v>72467.08779141685</v>
       </c>
       <c r="H6" t="n">
         <v>72467.08779141688</v>
@@ -26543,25 +26545,25 @@
         <v>72467.08779141685</v>
       </c>
       <c r="J6" t="n">
-        <v>-64127.71301447811</v>
+        <v>-64127.71301447814</v>
       </c>
       <c r="K6" t="n">
-        <v>72467.08779141687</v>
+        <v>72467.08779141688</v>
       </c>
       <c r="L6" t="n">
         <v>72467.08779141687</v>
       </c>
       <c r="M6" t="n">
-        <v>72467.08779141691</v>
+        <v>72467.08779141685</v>
       </c>
       <c r="N6" t="n">
         <v>72467.0877914169</v>
       </c>
       <c r="O6" t="n">
-        <v>72467.08779141688</v>
+        <v>72467.08779141687</v>
       </c>
       <c r="P6" t="n">
-        <v>72467.08779141687</v>
+        <v>72467.08779141685</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
         <v>522.0635703700256</v>
@@ -26808,28 +26810,28 @@
         <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>500.9700927793178</v>
+        <v>244.2170912967373</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M3" t="n">
-        <v>276.3515302285468</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204427</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35018,22 +35020,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>338.0047407346343</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35173,16 +35175,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204427</v>
       </c>
       <c r="N8" t="n">
-        <v>441.8756042977812</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35194,7 +35196,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N9" t="n">
-        <v>338.0047407346341</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="M11" t="n">
         <v>522.0635703700256</v>
@@ -35428,7 +35430,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.2507825193993</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35492,25 +35494,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>14.48459394538821</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,7 +35652,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M14" t="n">
         <v>522.0635703700256</v>
@@ -35659,13 +35661,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>306.2096305948397</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M15" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="N17" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="N18" t="n">
-        <v>179.3869557635734</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O20" t="n">
+        <v>203.2507825193993</v>
+      </c>
+      <c r="P20" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O21" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P21" t="n">
-        <v>306.2096305948391</v>
+        <v>471.1119924130243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="N23" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O23" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P23" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>10.70163254908642</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,22 +36600,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>203.2507825193993</v>
+        <v>400.9092955204427</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
         <v>40.9663087773382</v>
@@ -36674,28 +36676,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700256</v>
+        <v>306.2096305948394</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N27" t="n">
-        <v>338.0047407346341</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204427</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>500.9700927793178</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M33" t="n">
-        <v>367.8628411009271</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O35" t="n">
-        <v>460.0037840019794</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009267</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>40.55973291537975</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37543,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L38" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P39" t="n">
-        <v>500.9700927793172</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>203.2507825193992</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700256</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="O42" t="n">
-        <v>147.5918456237788</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="N44" t="n">
-        <v>400.909295520443</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700256</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P45" t="n">
-        <v>147.5918456237788</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279334.621306473</v>
+        <v>273605.2254752463</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763806</v>
+        <v>11821355.91763805</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10162932.89091066</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>308.4122580795719</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>298.0721989747358</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +749,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>107.8702810193206</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588044</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2.631299643330243</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>294.7228925766561</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>157.8237968337156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>70.03974083464124</v>
       </c>
       <c r="I6" t="n">
         <v>20.54110546596223</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>113.3390858888653</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>29.06736062834933</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -1113,13 +1113,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>286.2137375321901</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>206.0329791175249</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1232,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398079</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="10">
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>136.1769805884545</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>129.260218716481</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1384,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>392.564747250141</v>
+        <v>32.95238632371646</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -1545,10 +1545,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>153.7315525093737</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>10.64519616592654</v>
       </c>
       <c r="C14" t="n">
-        <v>393.9470907639073</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>58.11593919665176</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>33.36620735776427</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>120.2041205925705</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1937,7 +1937,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>105.9202115588048</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H18" t="n">
         <v>70.03974083464111</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672383</v>
+        <v>214.4993982056532</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>388.2474135039329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>11.22725795741854</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>3.722110893209776</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>388.3430365919143</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2332,10 +2332,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>59.14865633537795</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>10.3497717963117</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>154.9138530358401</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -2535,16 +2535,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>41.7773667277431</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2623,7 +2623,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>266.320935927732</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>144.2400162853134</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>267.3858372883298</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17.51637719420325</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>278.7600557223773</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -3012,13 +3012,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>272.2568796361705</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.06736062834934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4159614515814</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.3370229898143</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3113,7 +3113,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028012</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>86.5491849825634</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.263738932013419</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -3249,10 +3249,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>22.24184669399752</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>177.9021515945542</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>29.06736062834986</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>236.7947584689074</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3489,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>87.20082366335042</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>224.2419637676909</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>115.7281862028016</v>
       </c>
       <c r="E39" t="n">
         <v>119.2878878475953</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>88.61451326863863</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>129.1752199258839</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>38.28538244126393</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>72.52110493399796</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>29.06736062834986</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>251.7082699217148</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>254.0431557518567</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4039,13 +4039,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672383</v>
+        <v>129.1752199258839</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>439.0253456848109</v>
+        <v>767.6328345264143</v>
       </c>
       <c r="C2" t="n">
-        <v>439.0253456848109</v>
+        <v>767.6328345264143</v>
       </c>
       <c r="D2" t="n">
-        <v>439.0253456848109</v>
+        <v>767.6328345264143</v>
       </c>
       <c r="E2" t="n">
-        <v>439.0253456848109</v>
+        <v>353.292619043311</v>
       </c>
       <c r="F2" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>537.7254774811263</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1054.568412147451</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M2" t="n">
-        <v>1571.411346813777</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N2" t="n">
-        <v>1571.411346813777</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221061</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817052</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522209</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="X2" t="n">
-        <v>439.0253456848109</v>
+        <v>1168.569507578324</v>
       </c>
       <c r="Y2" t="n">
-        <v>439.0253456848109</v>
+        <v>767.6328345264143</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
         <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
         <v>234.5779431922353</v>
@@ -4415,22 +4415,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.227134123859</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4442,19 +4442,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>648.7202286601656</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>477.6268562218821</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>477.6268562218821</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>477.6268562218821</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4518,22 +4518,22 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1299.499495805762</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1299.499495805762</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1299.499495805762</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>1299.499495805762</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X4" t="n">
-        <v>1061.155633665445</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y4" t="n">
-        <v>836.41993505421</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1020.035937023212</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="C5" t="n">
-        <v>609.9113463364826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D5" t="n">
-        <v>609.9113463364826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E5" t="n">
-        <v>609.9113463364826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>609.9113463364826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>201.1830622293147</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636815</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>1209.69369432892</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M5" t="n">
-        <v>1209.69369432892</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N5" t="n">
-        <v>1209.69369432892</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
         <v>1209.69369432892</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1831.193789739612</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.193789739612</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X5" t="n">
-        <v>1831.193789739612</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y5" t="n">
-        <v>1430.257116687702</v>
+        <v>339.4649771211738</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>81.91922121582792</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L6" t="n">
-        <v>1192.007362767163</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M6" t="n">
-        <v>1192.007362767163</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767163</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O6" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>589.4529029345438</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="C7" t="n">
-        <v>589.4529029345438</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="D7" t="n">
-        <v>589.4529029345438</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="E7" t="n">
-        <v>589.4529029345438</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198192</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V7" t="n">
-        <v>777.1526093285881</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W7" t="n">
-        <v>777.1526093285881</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X7" t="n">
-        <v>777.1526093285881</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y7" t="n">
-        <v>777.1526093285881</v>
+        <v>71.12605596126804</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.76508562960203</v>
+        <v>1064.467726544004</v>
       </c>
       <c r="C8" t="n">
-        <v>41.76508562960203</v>
+        <v>654.3431358572738</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960203</v>
+        <v>249.8792059503343</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636815</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636815</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="M8" t="n">
-        <v>1209.69369432892</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N8" t="n">
-        <v>1726.536628995245</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O8" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4840,16 +4840,16 @@
         <v>1866.047797426961</v>
       </c>
       <c r="V8" t="n">
-        <v>1516.210242763441</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W8" t="n">
-        <v>1132.44994189861</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X8" t="n">
-        <v>731.8065440675625</v>
+        <v>1465.404399595914</v>
       </c>
       <c r="Y8" t="n">
-        <v>330.8698710156526</v>
+        <v>1064.467726544004</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>1207.227134123859</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M9" t="n">
-        <v>1724.070068790184</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N9" t="n">
-        <v>1724.070068790184</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O9" t="n">
-        <v>2058.694762117472</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4916,19 +4916,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.1526093285881</v>
+        <v>510.6747266337371</v>
       </c>
       <c r="C10" t="n">
-        <v>777.1526093285881</v>
+        <v>339.5813541954536</v>
       </c>
       <c r="D10" t="n">
-        <v>777.1526093285881</v>
+        <v>339.5813541954536</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>339.5813541954536</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V10" t="n">
-        <v>777.1526093285881</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W10" t="n">
-        <v>777.1526093285881</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X10" t="n">
-        <v>777.1526093285881</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="Y10" t="n">
-        <v>777.1526093285881</v>
+        <v>510.6747266337371</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2088.254281480102</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="C11" t="n">
-        <v>1678.129690793372</v>
+        <v>910.4209518698425</v>
       </c>
       <c r="D11" t="n">
-        <v>1273.665760886433</v>
+        <v>910.4209518698425</v>
       </c>
       <c r="E11" t="n">
-        <v>859.3255454033297</v>
+        <v>496.0807363867392</v>
       </c>
       <c r="F11" t="n">
-        <v>438.2951333570172</v>
+        <v>75.05032434042676</v>
       </c>
       <c r="G11" t="n">
         <v>41.76508562960205</v>
@@ -5041,52 +5041,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>176.0078249962696</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M11" t="n">
-        <v>692.8507596625949</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N11" t="n">
-        <v>692.8507596625949</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O11" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P11" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>690.384199457534</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M12" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N12" t="n">
-        <v>1207.227134123859</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O12" t="n">
-        <v>1207.227134123859</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P12" t="n">
         <v>1708.850297433489</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T13" t="n">
-        <v>1571.163982250452</v>
+        <v>1144.215099331647</v>
       </c>
       <c r="U13" t="n">
-        <v>1571.163982250452</v>
+        <v>1144.215099331647</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.163982250452</v>
+        <v>1144.215099331647</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.163982250452</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="X13" t="n">
-        <v>1543.534340936018</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>865.1454348405214</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2088.254281480102</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="C14" t="n">
-        <v>1690.327927173125</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.863997266186</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="E14" t="n">
-        <v>871.5237817830823</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I14" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962253</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O14" t="n">
         <v>2088.254281480102</v>
@@ -5308,22 +5308,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>858.5063531919045</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>858.5063531919045</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D15" t="n">
         <v>469.7036984844747</v>
@@ -5348,13 +5348,13 @@
         <v>240.2510026593072</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H15" t="n">
-        <v>62.5136770093618</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
         <v>234.5779431922353</v>
@@ -5366,13 +5366,13 @@
         <v>690.384199457534</v>
       </c>
       <c r="M15" t="n">
-        <v>1192.007362767164</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N15" t="n">
-        <v>1192.007362767164</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O15" t="n">
-        <v>1192.007362767164</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P15" t="n">
         <v>1708.850297433489</v>
@@ -5396,7 +5396,7 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T16" t="n">
-        <v>1571.163982250452</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="U16" t="n">
-        <v>1571.163982250452</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="V16" t="n">
-        <v>1571.163982250452</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.163982250452</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="X16" t="n">
-        <v>1543.534340936018</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.798642324783</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1182.432279155364</v>
+        <v>807.4072348035139</v>
       </c>
       <c r="C17" t="n">
-        <v>1182.432279155364</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="D17" t="n">
-        <v>1182.432279155364</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E17" t="n">
-        <v>1182.432279155364</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F17" t="n">
-        <v>761.4018671090519</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G17" t="n">
         <v>352.673583001884</v>
@@ -5515,28 +5515,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.011766457887</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N17" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O17" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q17" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
@@ -5545,22 +5545,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V17" t="n">
-        <v>1966.835977851243</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W17" t="n">
-        <v>1583.075676986412</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X17" t="n">
-        <v>1182.432279155364</v>
+        <v>1208.343907855424</v>
       </c>
       <c r="Y17" t="n">
-        <v>1182.432279155364</v>
+        <v>807.4072348035139</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G18" t="n">
         <v>133.2608899736458</v>
@@ -5603,19 +5603,19 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>1708.850297433489</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N18" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O18" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P18" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5630,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="19">
@@ -5697,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T19" t="n">
-        <v>1331.615243227154</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U19" t="n">
-        <v>1048.817095773278</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V19" t="n">
-        <v>774.9313507128002</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="W19" t="n">
-        <v>495.8616862216745</v>
+        <v>684.4747129575521</v>
       </c>
       <c r="X19" t="n">
-        <v>257.5178240813579</v>
+        <v>446.1308508172355</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960205</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1678.033101815613</v>
+        <v>457.5696801399946</v>
       </c>
       <c r="C20" t="n">
-        <v>1285.863997266186</v>
+        <v>457.5696801399946</v>
       </c>
       <c r="D20" t="n">
-        <v>1285.863997266186</v>
+        <v>53.10575023305512</v>
       </c>
       <c r="E20" t="n">
-        <v>871.5237817830823</v>
+        <v>53.10575023305512</v>
       </c>
       <c r="F20" t="n">
-        <v>450.4933697367699</v>
+        <v>53.10575023305512</v>
       </c>
       <c r="G20" t="n">
         <v>41.76508562960205</v>
@@ -5758,22 +5758,22 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L20" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M20" t="n">
-        <v>812.7934917636817</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N20" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O20" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
@@ -5782,22 +5782,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V20" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X20" t="n">
-        <v>2088.254281480102</v>
+        <v>858.5063531919045</v>
       </c>
       <c r="Y20" t="n">
-        <v>2088.254281480102</v>
+        <v>457.5696801399946</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G21" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I21" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M21" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N21" t="n">
-        <v>1075.450954962253</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O21" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P21" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q21" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5867,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1131.098935930739</v>
+        <v>365.8908561961008</v>
       </c>
       <c r="C22" t="n">
-        <v>960.0055634924552</v>
+        <v>365.8908561961008</v>
       </c>
       <c r="D22" t="n">
-        <v>800.5109188153651</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="E22" t="n">
-        <v>639.6001036836846</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F22" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
         <v>41.76508562960205</v>
@@ -5934,28 +5934,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S22" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T22" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U22" t="n">
-        <v>1571.163982250452</v>
+        <v>1295.739787832823</v>
       </c>
       <c r="V22" t="n">
-        <v>1571.163982250452</v>
+        <v>1295.739787832823</v>
       </c>
       <c r="W22" t="n">
-        <v>1571.163982250452</v>
+        <v>1016.670123341697</v>
       </c>
       <c r="X22" t="n">
-        <v>1543.534340936018</v>
+        <v>778.3262612013805</v>
       </c>
       <c r="Y22" t="n">
-        <v>1318.798642324783</v>
+        <v>553.5905625901452</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1695.988587952916</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="C23" t="n">
-        <v>1285.863997266186</v>
+        <v>936.8818306695006</v>
       </c>
       <c r="D23" t="n">
-        <v>1285.863997266186</v>
+        <v>936.8818306695006</v>
       </c>
       <c r="E23" t="n">
-        <v>871.5237817830823</v>
+        <v>522.5416151863973</v>
       </c>
       <c r="F23" t="n">
-        <v>450.4933697367699</v>
+        <v>101.5112031400848</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960203</v>
+        <v>101.5112031400848</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L23" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M23" t="n">
-        <v>1054.568412147451</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N23" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O23" t="n">
         <v>2088.254281480102</v>
@@ -6016,25 +6016,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.254281480102</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.254281480102</v>
+        <v>1347.00642135623</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960204</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>508.1659581184963</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M24" t="n">
-        <v>508.1659581184963</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N24" t="n">
-        <v>1025.008892784821</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O24" t="n">
-        <v>1541.851827451147</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P24" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q24" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>536.5874885724836</v>
+        <v>545.0117326709172</v>
       </c>
       <c r="C25" t="n">
-        <v>365.4941161342001</v>
+        <v>545.0117326709172</v>
       </c>
       <c r="D25" t="n">
-        <v>365.4941161342001</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E25" t="n">
-        <v>365.4941161342001</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F25" t="n">
         <v>209.0154767040586</v>
       </c>
       <c r="G25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6183,16 +6183,16 @@
         <v>1048.817095773278</v>
       </c>
       <c r="V25" t="n">
-        <v>774.9313507128002</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="W25" t="n">
-        <v>774.9313507128002</v>
+        <v>769.7474312821525</v>
       </c>
       <c r="X25" t="n">
-        <v>536.5874885724836</v>
+        <v>769.7474312821525</v>
       </c>
       <c r="Y25" t="n">
-        <v>536.5874885724836</v>
+        <v>545.0117326709172</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>450.4933697367699</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="C26" t="n">
-        <v>450.4933697367699</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D26" t="n">
-        <v>450.4933697367699</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E26" t="n">
-        <v>450.4933697367699</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F26" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L26" t="n">
-        <v>812.7934917636815</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M26" t="n">
-        <v>812.7934917636815</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N26" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O26" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P26" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q26" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
@@ -6256,22 +6256,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>2046.054921149048</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U26" t="n">
-        <v>2046.054921149048</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V26" t="n">
-        <v>2046.054921149048</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W26" t="n">
-        <v>1662.294620284217</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X26" t="n">
-        <v>1261.651222453169</v>
+        <v>731.806544067563</v>
       </c>
       <c r="Y26" t="n">
-        <v>860.7145494012593</v>
+        <v>462.7954976759145</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>537.7254774811263</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M27" t="n">
-        <v>1054.568412147451</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N27" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O27" t="n">
         <v>2088.254281480102</v>
@@ -6341,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1105.702549639236</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6411,25 +6411,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1384.772214130362</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>1384.772214130362</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V28" t="n">
-        <v>1384.772214130362</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.702549639236</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X28" t="n">
-        <v>1105.702549639236</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y28" t="n">
-        <v>1105.702549639236</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1285.863997266186</v>
+        <v>1183.828585734926</v>
       </c>
       <c r="C29" t="n">
-        <v>1285.863997266186</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="D29" t="n">
-        <v>1285.863997266186</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E29" t="n">
-        <v>871.5237817830823</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F29" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L29" t="n">
-        <v>812.7934917636815</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M29" t="n">
-        <v>812.7934917636815</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N29" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O29" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P29" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6493,22 +6493,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W29" t="n">
-        <v>1704.49398061527</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X29" t="n">
-        <v>1704.49398061527</v>
+        <v>1465.404399595914</v>
       </c>
       <c r="Y29" t="n">
-        <v>1303.557307563361</v>
+        <v>1183.828585734926</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
         <v>234.5779431922353</v>
@@ -6551,19 +6551,19 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M30" t="n">
-        <v>1207.227134123859</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N30" t="n">
-        <v>1541.851827451147</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O30" t="n">
-        <v>1541.851827451147</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P30" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q30" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6645,28 +6645,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S31" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T31" t="n">
-        <v>1145.223475107064</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U31" t="n">
-        <v>862.4253276531883</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V31" t="n">
-        <v>588.5395825927103</v>
+        <v>742.815603291408</v>
       </c>
       <c r="W31" t="n">
-        <v>309.4699181015847</v>
+        <v>467.8086541639631</v>
       </c>
       <c r="X31" t="n">
-        <v>71.12605596126804</v>
+        <v>229.4647920236465</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.76508562960203</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>451.8896763163319</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C32" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D32" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E32" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F32" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L32" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M32" t="n">
-        <v>1075.450954962252</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N32" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O32" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P32" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q32" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
@@ -6730,22 +6730,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T32" t="n">
-        <v>1869.652300215878</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U32" t="n">
-        <v>1612.591808475388</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V32" t="n">
-        <v>1262.754253811869</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W32" t="n">
-        <v>1262.754253811869</v>
+        <v>1154.253653884841</v>
       </c>
       <c r="X32" t="n">
-        <v>862.1108559808214</v>
+        <v>753.6102560537939</v>
       </c>
       <c r="Y32" t="n">
-        <v>862.1108559808214</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G33" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>558.6080202959272</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M33" t="n">
-        <v>1075.450954962252</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N33" t="n">
-        <v>1541.851827451147</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O33" t="n">
-        <v>1541.851827451147</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6812,19 +6812,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U33" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.6296067167062</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C34" t="n">
-        <v>202.5362342784227</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>43.04158960133276</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6882,28 +6882,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T34" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U34" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0650117219859</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="W34" t="n">
-        <v>786.0650117219859</v>
+        <v>592.2680655554605</v>
       </c>
       <c r="X34" t="n">
-        <v>786.0650117219859</v>
+        <v>353.9242034151438</v>
       </c>
       <c r="Y34" t="n">
-        <v>561.3293131107506</v>
+        <v>129.1885048039085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>64.23159744172074</v>
+        <v>757.1375129088235</v>
       </c>
       <c r="C35" t="n">
-        <v>64.23159744172074</v>
+        <v>757.1375129088235</v>
       </c>
       <c r="D35" t="n">
-        <v>64.23159744172074</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E35" t="n">
-        <v>64.23159744172074</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.450954962252</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N35" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O35" t="n">
         <v>2088.254281480102</v>
@@ -6967,22 +6967,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T35" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U35" t="n">
-        <v>1608.987305686471</v>
+        <v>1908.5551384553</v>
       </c>
       <c r="V35" t="n">
-        <v>1259.149751022951</v>
+        <v>1558.717583791781</v>
       </c>
       <c r="W35" t="n">
-        <v>875.3894501581201</v>
+        <v>1558.717583791781</v>
       </c>
       <c r="X35" t="n">
-        <v>875.3894501581201</v>
+        <v>1158.074185960733</v>
       </c>
       <c r="Y35" t="n">
-        <v>474.4527771062102</v>
+        <v>757.1375129088235</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
         <v>234.5779431922353</v>
@@ -7022,13 +7022,13 @@
         <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>1054.568412147451</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M36" t="n">
-        <v>1571.411346813777</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N36" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O36" t="n">
         <v>2088.254281480102</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C37" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D37" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E37" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M37" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P37" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>2058.893311148435</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S37" t="n">
-        <v>1872.501543028345</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T37" t="n">
-        <v>1632.952804005047</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U37" t="n">
-        <v>1350.154656551172</v>
+        <v>1007.155900186485</v>
       </c>
       <c r="V37" t="n">
-        <v>1076.268911490694</v>
+        <v>733.2701551260075</v>
       </c>
       <c r="W37" t="n">
-        <v>797.199246999568</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="X37" t="n">
-        <v>558.8553848592514</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y37" t="n">
-        <v>558.8553848592514</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>856.3536062232714</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="C38" t="n">
-        <v>446.2290155365415</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D38" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E38" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L38" t="n">
-        <v>1075.450954962252</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M38" t="n">
-        <v>1075.450954962252</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N38" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O38" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P38" t="n">
         <v>2088.254281480102</v>
@@ -7201,25 +7201,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>2000.172641416111</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U38" t="n">
-        <v>2000.172641416111</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V38" t="n">
-        <v>1650.335086752592</v>
+        <v>1247.199196371793</v>
       </c>
       <c r="W38" t="n">
-        <v>1266.574785887761</v>
+        <v>863.4388955069619</v>
       </c>
       <c r="X38" t="n">
-        <v>1266.574785887761</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="Y38" t="n">
-        <v>1266.574785887761</v>
+        <v>462.7954976759145</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D39" t="n">
         <v>469.7036984844746</v>
@@ -7247,28 +7247,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M39" t="n">
-        <v>1075.450954962252</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N39" t="n">
-        <v>1075.450954962252</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O39" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P39" t="n">
         <v>2088.254281480102</v>
@@ -7289,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>622.7735272389173</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C40" t="n">
-        <v>451.6801548006338</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>292.1855101235438</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>131.2746949918633</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7356,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S40" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T40" t="n">
-        <v>1331.615243227154</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U40" t="n">
-        <v>1048.817095773278</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V40" t="n">
-        <v>1048.817095773278</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W40" t="n">
-        <v>1048.817095773278</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X40" t="n">
-        <v>810.4732336329616</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y40" t="n">
-        <v>810.4732336329616</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>893.6294031197335</v>
+        <v>1264.519687638063</v>
       </c>
       <c r="C41" t="n">
-        <v>854.9572996437093</v>
+        <v>1264.519687638063</v>
       </c>
       <c r="D41" t="n">
-        <v>450.4933697367699</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="E41" t="n">
-        <v>450.4933697367699</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="F41" t="n">
-        <v>450.4933697367699</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L41" t="n">
-        <v>558.6080202959272</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M41" t="n">
-        <v>558.6080202959272</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N41" t="n">
-        <v>1075.450954962252</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O41" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P41" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q41" t="n">
         <v>2088.254281480102</v>
@@ -7438,25 +7438,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S41" t="n">
-        <v>2088.254281480102</v>
+        <v>2015.00064013263</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>2015.00064013263</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>2015.00064013263</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1665.16308546911</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.49398061527</v>
+        <v>1665.16308546911</v>
       </c>
       <c r="X41" t="n">
-        <v>1303.850582784223</v>
+        <v>1264.519687638063</v>
       </c>
       <c r="Y41" t="n">
-        <v>1303.850582784223</v>
+        <v>1264.519687638063</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
         <v>234.5779431922353</v>
@@ -7502,13 +7502,13 @@
         <v>1724.070068790184</v>
       </c>
       <c r="N42" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O42" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P42" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7526,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M43" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N43" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P43" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>2058.893311148435</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1872.501543028345</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1632.952804005047</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>1350.154656551172</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>1076.268911490694</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>797.199246999568</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>558.8553848592514</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.76508562960203</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="C44" t="n">
-        <v>41.76508562960203</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="D44" t="n">
-        <v>41.76508562960203</v>
+        <v>719.4047459101132</v>
       </c>
       <c r="E44" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L44" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M44" t="n">
-        <v>1571.411346813777</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N44" t="n">
         <v>1571.411346813777</v>
@@ -7675,25 +7675,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U44" t="n">
-        <v>1831.193789739612</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V44" t="n">
-        <v>1481.356235076093</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W44" t="n">
-        <v>1097.595934211261</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X44" t="n">
-        <v>696.9525363802138</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0158633283039</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G45" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>1054.568412147451</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N45" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O45" t="n">
         <v>2088.254281480102</v>
@@ -7763,16 +7763,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X45" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
         <v>470.2970630371111</v>
@@ -7830,28 +7830,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S46" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T46" t="n">
-        <v>1331.615243227154</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U46" t="n">
-        <v>1048.817095773278</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V46" t="n">
-        <v>774.9313507128002</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W46" t="n">
-        <v>495.8616862216745</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X46" t="n">
-        <v>257.5178240813579</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>333.3534809699544</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270709</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808745</v>
+        <v>70.59911775623726</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1981341283837</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>496.3946935832875</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>91.92897171537967</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>562.8045877599694</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>272.0504334731806</v>
       </c>
       <c r="M8" t="n">
-        <v>494.1995199774881</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8476,7 +8476,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>395.7562197346337</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>94.8193679181835</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>231.0841246958424</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,19 +8774,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>560.9496989519245</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
         <v>617.5489684328704</v>
@@ -8938,10 +8938,10 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
@@ -9014,16 +9014,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>564.2543476875383</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491207</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M17" t="n">
-        <v>553.2940084590249</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
@@ -9187,7 +9187,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9251,10 +9251,10 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>564.2543476875381</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
@@ -9263,10 +9263,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,25 +9406,25 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O20" t="n">
-        <v>296.4405581451824</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700256</v>
+        <v>72.2360729453882</v>
       </c>
       <c r="P21" t="n">
-        <v>525.371627415828</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M23" t="n">
-        <v>594.2603172363629</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O23" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
         <v>93.64936328088416</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>66.81615635993546</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29022445704545</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>494.5586588013268</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,19 +9956,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>362.3241544056884</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M27" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10114,28 +10114,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M29" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N29" t="n">
-        <v>493.821586277062</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O29" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,25 +10196,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N30" t="n">
-        <v>391.1981341283837</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O32" t="n">
-        <v>553.1935596277623</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
         <v>93.64936328088416</v>
@@ -10372,7 +10372,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808745</v>
+        <v>423.9773649117762</v>
       </c>
       <c r="M33" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>524.3053858067744</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270709</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O35" t="n">
-        <v>594.1598684051006</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
@@ -10670,16 +10670,16 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>423.9773649117757</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M36" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O38" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
-        <v>594.6194560602016</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
         <v>90.03380439915205</v>
@@ -10901,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M39" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>555.2297277821212</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328703</v>
+        <v>339.7024893595824</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
-        <v>269.7548110361188</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>87.31214281472352</v>
@@ -11144,13 +11144,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N42" t="n">
-        <v>67.67798733913774</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
@@ -11159,7 +11159,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
-        <v>594.2603172363629</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P44" t="n">
         <v>93.64936328088416</v>
@@ -11375,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
-        <v>98.1240166537967</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -22555,19 +22555,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>108.4078498462774</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>98.56476487800114</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -22716,16 +22716,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>160.3535149871844</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>111.3004522032065</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -22798,10 +22798,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>149.9756155648436</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -22953,16 +22953,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>49.64572874164938</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>119.0440200142486</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23001,13 +23001,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.9052303356545</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>204.1638342107474</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -23080,10 +23080,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23181,25 +23181,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>23.12472639190918</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>33.72459591403361</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>12.0762540159551</v>
+        <v>371.6886149423797</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>83.42169912369124</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -23478,13 +23478,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>395.473771701918</v>
       </c>
       <c r="C14" t="n">
-        <v>12.07625401595521</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>179.0373124364131</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -23718,7 +23718,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>372.6571374220983</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>226.1350585243136</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.89313055788466</v>
+        <v>7.988943419469763</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>17.77593127592968</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>393.4137433086776</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24022,22 +24022,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>276.2480550861273</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17.7759312759303</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>248.6507560631812</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -24268,7 +24268,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -24366,16 +24366,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>147.5499264340074</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>8.070961594674571</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -24454,10 +24454,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -24496,13 +24496,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>178.2070524848667</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>130.6063703936588</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>25.14242242858725</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>8.893130557884604</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>388.6025906736413</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24733,7 +24733,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -24742,13 +24742,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>118.1672505990135</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>4.022088210043876</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>193.4209809967736</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -24934,7 +24934,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24970,22 +24970,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>3.568457761028327</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>21.58567486636883</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>99.27352434754054</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>158.0379680483503</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>394.5782612318518</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25207,19 +25207,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>76.58773522853082</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>55.35263051300448</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>43.17540751042969</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>132.7835955492594</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>122.0972153491932</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>74.37030136187602</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>93.31312169923908</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>367.7379623385986</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>61.40715951984218</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -25687,10 +25687,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>55.35263051300448</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>154.4106979461297</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>156.1536575764155</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.893130557884632</v>
+        <v>93.31312169923908</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>561264.0918490101</v>
+        <v>561264.0918490102</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>561264.0918490101</v>
+        <v>561264.09184901</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>561264.0918490101</v>
+        <v>561264.0918490102</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>561264.09184901</v>
+        <v>561264.0918490101</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>561264.09184901</v>
+        <v>561264.0918490101</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>561264.0918490101</v>
+        <v>561264.09184901</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>561264.09184901</v>
+        <v>561264.0918490101</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>104642.4578023578</v>
       </c>
       <c r="D2" t="n">
-        <v>104642.4578023578</v>
+        <v>104642.4578023579</v>
       </c>
       <c r="E2" t="n">
         <v>104642.4578023579</v>
@@ -26334,16 +26334,16 @@
         <v>104642.4578023579</v>
       </c>
       <c r="I2" t="n">
-        <v>104642.4578023578</v>
+        <v>104642.4578023579</v>
       </c>
       <c r="J2" t="n">
-        <v>104642.4578023578</v>
+        <v>104642.4578023579</v>
       </c>
       <c r="K2" t="n">
         <v>104642.4578023579</v>
       </c>
       <c r="L2" t="n">
-        <v>104642.4578023578</v>
+        <v>104642.4578023579</v>
       </c>
       <c r="M2" t="n">
         <v>104642.4578023578</v>
@@ -26352,10 +26352,10 @@
         <v>104642.4578023579</v>
       </c>
       <c r="O2" t="n">
-        <v>104642.4578023578</v>
+        <v>104642.4578023579</v>
       </c>
       <c r="P2" t="n">
-        <v>104642.4578023578</v>
+        <v>104642.4578023579</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>433.9049324434262</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="C4" t="n">
-        <v>433.9049324434262</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="D4" t="n">
-        <v>433.9049324434262</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="E4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="F4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="G4" t="n">
         <v>433.9049324434263</v>
@@ -26441,22 +26441,22 @@
         <v>433.9049324434263</v>
       </c>
       <c r="J4" t="n">
-        <v>433.9049324434262</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="K4" t="n">
-        <v>433.9049324434262</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="L4" t="n">
+        <v>433.9049324434264</v>
+      </c>
+      <c r="M4" t="n">
         <v>433.9049324434263</v>
       </c>
-      <c r="M4" t="n">
-        <v>433.9049324434262</v>
-      </c>
       <c r="N4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="O4" t="n">
-        <v>433.9049324434262</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="P4" t="n">
         <v>433.9049324434263</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136116.0221016972</v>
+        <v>-136793.5509610912</v>
       </c>
       <c r="C6" t="n">
-        <v>38839.48779141686</v>
+        <v>38161.9589320228</v>
       </c>
       <c r="D6" t="n">
-        <v>38839.48779141683</v>
+        <v>38161.95893202283</v>
       </c>
       <c r="E6" t="n">
-        <v>72467.08779141691</v>
+        <v>71789.55893202285</v>
       </c>
       <c r="F6" t="n">
-        <v>72467.08779141687</v>
+        <v>71789.55893202283</v>
       </c>
       <c r="G6" t="n">
-        <v>72467.08779141688</v>
+        <v>71789.55893202285</v>
       </c>
       <c r="H6" t="n">
-        <v>72467.08779141688</v>
+        <v>71789.55893202283</v>
       </c>
       <c r="I6" t="n">
-        <v>72467.08779141685</v>
+        <v>71789.55893202283</v>
       </c>
       <c r="J6" t="n">
-        <v>-64127.71301447814</v>
+        <v>-64805.24187387215</v>
       </c>
       <c r="K6" t="n">
-        <v>72467.08779141688</v>
+        <v>71789.55893202283</v>
       </c>
       <c r="L6" t="n">
-        <v>72467.08779141687</v>
+        <v>71789.55893202286</v>
       </c>
       <c r="M6" t="n">
-        <v>72467.08779141685</v>
+        <v>71789.5589320228</v>
       </c>
       <c r="N6" t="n">
-        <v>72467.0877914169</v>
+        <v>71789.55893202283</v>
       </c>
       <c r="O6" t="n">
-        <v>72467.08779141687</v>
+        <v>71789.55893202282</v>
       </c>
       <c r="P6" t="n">
-        <v>72467.08779141685</v>
+        <v>71789.55893202285</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
         <v>522.0635703700256</v>
@@ -26810,28 +26810,28 @@
         <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>244.2170912967373</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700254</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>338.0047407346337</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>400.9092955204427</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>40.55973291537967</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>506.6900639491204</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="M8" t="n">
-        <v>400.9092955204427</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>338.0047407346337</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>40.55973291537975</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
-        <v>135.5987266329975</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>506.6900639491207</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
         <v>522.0635703700256</v>
@@ -35658,10 +35658,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O14" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>506.6900639491208</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M17" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
-        <v>506.6900639491207</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O20" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O21" t="n">
+        <v>14.48459394538821</v>
+      </c>
+      <c r="P21" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P21" t="n">
-        <v>471.1119924130243</v>
-      </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M23" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N23" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>10.70163254908642</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>400.9092955204427</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>306.2096305948394</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N29" t="n">
-        <v>400.9092955204427</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N30" t="n">
-        <v>338.0047407346337</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O32" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009272</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>471.1119924130245</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O35" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>367.8628411009267</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O41" t="n">
-        <v>176.5650354103356</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N42" t="n">
-        <v>14.48459394538775</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
